--- a/src/main/resources/Labels/newLabel/magazijnLabel.xlsx
+++ b/src/main/resources/Labels/newLabel/magazijnLabel.xlsx
@@ -191,7 +191,7 @@
     <t>Opslag type:</t>
   </si>
   <si>
-    <t>jan</t>
+    <t>hsleiden</t>
   </si>
   <si>
     <t>NULL</t>
